--- a/meta_id_codes.xlsx
+++ b/meta_id_codes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maristuser\Desktop\META\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raulwicke\Documents\GitHub\SHRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,32 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="144">
-  <si>
-    <t>UC99L9</t>
-  </si>
-  <si>
-    <t>TX25O9</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>AC25X3</t>
   </si>
   <si>
-    <t>JY58F0</t>
-  </si>
-  <si>
-    <t>FS38V4</t>
-  </si>
-  <si>
-    <t>ND95E0</t>
-  </si>
-  <si>
     <t>KA67G7</t>
   </si>
   <si>
-    <t>YJ49O4</t>
-  </si>
-  <si>
     <t>YQ89Q0</t>
   </si>
   <si>
@@ -77,36 +59,6 @@
     <t>JL14Z1</t>
   </si>
   <si>
-    <t>UR31O5</t>
-  </si>
-  <si>
-    <t>LL12G7</t>
-  </si>
-  <si>
-    <t>OV70X3</t>
-  </si>
-  <si>
-    <t>YC26T9</t>
-  </si>
-  <si>
-    <t>AT51N1</t>
-  </si>
-  <si>
-    <t>LF44D2</t>
-  </si>
-  <si>
-    <t>OV17Z8</t>
-  </si>
-  <si>
-    <t>KM11U7</t>
-  </si>
-  <si>
-    <t>MV17Y3</t>
-  </si>
-  <si>
-    <t>ZX48E7</t>
-  </si>
-  <si>
     <t>BV49B4</t>
   </si>
   <si>
@@ -260,9 +212,6 @@
     <t>DB98Z6</t>
   </si>
   <si>
-    <t>LZ82A5</t>
-  </si>
-  <si>
     <t>YN89S2</t>
   </si>
   <si>
@@ -311,9 +260,6 @@
     <t>FI98L4</t>
   </si>
   <si>
-    <t>YZ94L4</t>
-  </si>
-  <si>
     <t>BA31K4</t>
   </si>
   <si>
@@ -438,24 +384,6 @@
   </si>
   <si>
     <t>EY19S8</t>
-  </si>
-  <si>
-    <t>YW46P5</t>
-  </si>
-  <si>
-    <t>IZ27J0</t>
-  </si>
-  <si>
-    <t>ZP84Q6</t>
-  </si>
-  <si>
-    <t>KZ39E8</t>
-  </si>
-  <si>
-    <t>WI20T1</t>
-  </si>
-  <si>
-    <t>WP23U0</t>
   </si>
 </sst>
 </file>
@@ -586,6 +514,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -621,6 +566,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -773,475 +735,401 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A2:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L15" sqref="L15"/>
+      <selection activeCell="A3" sqref="A3:C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" t="s">
+        <v>20</v>
+      </c>
+      <c r="K4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" t="s">
+        <v>25</v>
+      </c>
+      <c r="J5" t="s">
+        <v>26</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+      <c r="J8" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" t="s">
+        <v>55</v>
+      </c>
+      <c r="D9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" t="s">
+        <v>90</v>
+      </c>
+      <c r="G9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
         <v>95</v>
       </c>
-      <c r="B1" t="s">
-        <v>138</v>
-      </c>
-      <c r="C1" t="s">
-        <v>139</v>
-      </c>
-      <c r="D1" t="s">
-        <v>140</v>
-      </c>
-      <c r="E1" t="s">
-        <v>0</v>
-      </c>
-      <c r="F1" t="s">
-        <v>17</v>
-      </c>
-      <c r="G1" t="s">
-        <v>18</v>
-      </c>
-      <c r="H1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I1" t="s">
-        <v>20</v>
-      </c>
-      <c r="J1" t="s">
-        <v>21</v>
-      </c>
-      <c r="K1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B2" t="s">
-        <v>142</v>
-      </c>
-      <c r="C2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I2" t="s">
-        <v>25</v>
-      </c>
-      <c r="J2" t="s">
-        <v>26</v>
-      </c>
-      <c r="K2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I3" t="s">
-        <v>30</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" t="s">
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>58</v>
+      </c>
+      <c r="B10" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>96</v>
+      </c>
+      <c r="G10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H10" t="s">
+        <v>98</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F11" t="s">
+        <v>102</v>
+      </c>
+      <c r="G11" t="s">
+        <v>103</v>
+      </c>
+      <c r="H11" t="s">
+        <v>104</v>
+      </c>
+      <c r="I11" t="s">
+        <v>105</v>
+      </c>
+      <c r="J11" t="s">
+        <v>106</v>
+      </c>
+      <c r="K11" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" t="s">
         <v>34</v>
       </c>
-      <c r="I4" t="s">
-        <v>35</v>
-      </c>
-      <c r="J4" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-      <c r="G5" t="s">
-        <v>39</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="E12" t="s">
+        <v>66</v>
+      </c>
+      <c r="F12" t="s">
+        <v>108</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J12" t="s">
+        <v>112</v>
+      </c>
+      <c r="K12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" t="s">
         <v>40</v>
       </c>
-      <c r="I5" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" t="s">
-        <v>42</v>
-      </c>
-      <c r="K5" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" t="s">
-        <v>54</v>
-      </c>
-      <c r="D6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" t="s">
-        <v>44</v>
-      </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="E13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F13" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>46</v>
-      </c>
-      <c r="I6" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" t="s">
-        <v>48</v>
-      </c>
-      <c r="K6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>59</v>
-      </c>
-      <c r="C7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G7" t="s">
-        <v>97</v>
-      </c>
-      <c r="H7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="J7" t="s">
-        <v>100</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" t="s">
-        <v>73</v>
-      </c>
-      <c r="E8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" t="s">
-        <v>102</v>
-      </c>
-      <c r="G8" t="s">
-        <v>103</v>
-      </c>
-      <c r="H8" t="s">
-        <v>104</v>
-      </c>
-      <c r="I8" t="s">
-        <v>105</v>
-      </c>
-      <c r="J8" t="s">
-        <v>106</v>
-      </c>
-      <c r="K8" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" t="s">
-        <v>70</v>
-      </c>
-      <c r="C9" t="s">
-        <v>71</v>
-      </c>
-      <c r="D9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E9" t="s">
-        <v>67</v>
-      </c>
-      <c r="F9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G9" t="s">
-        <v>109</v>
-      </c>
-      <c r="H9" t="s">
-        <v>110</v>
-      </c>
-      <c r="I9" t="s">
-        <v>111</v>
-      </c>
-      <c r="J9" t="s">
-        <v>112</v>
-      </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C10" t="s">
-        <v>76</v>
-      </c>
-      <c r="D10" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10" t="s">
-        <v>114</v>
-      </c>
-      <c r="G10" t="s">
-        <v>115</v>
-      </c>
-      <c r="H10" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10" t="s">
-        <v>117</v>
-      </c>
-      <c r="J10" t="s">
-        <v>118</v>
-      </c>
-      <c r="K10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>80</v>
-      </c>
-      <c r="B11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>120</v>
-      </c>
-      <c r="G11" t="s">
-        <v>121</v>
-      </c>
-      <c r="H11" t="s">
-        <v>122</v>
-      </c>
-      <c r="I11" t="s">
-        <v>123</v>
-      </c>
-      <c r="J11" t="s">
-        <v>124</v>
-      </c>
-      <c r="K11" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>86</v>
-      </c>
-      <c r="B12" t="s">
-        <v>87</v>
-      </c>
-      <c r="C12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-      <c r="F12" t="s">
-        <v>126</v>
-      </c>
-      <c r="G12" t="s">
-        <v>127</v>
-      </c>
-      <c r="H12" t="s">
-        <v>128</v>
-      </c>
-      <c r="I12" t="s">
-        <v>129</v>
-      </c>
-      <c r="J12" t="s">
-        <v>130</v>
-      </c>
-      <c r="K12" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>89</v>
-      </c>
-      <c r="F13" t="s">
-        <v>132</v>
-      </c>
-      <c r="G13" t="s">
-        <v>133</v>
-      </c>
-      <c r="H13" t="s">
-        <v>134</v>
-      </c>
-      <c r="I13" t="s">
-        <v>135</v>
-      </c>
-      <c r="J13" t="s">
-        <v>136</v>
-      </c>
-      <c r="K13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/meta_id_codes.xlsx
+++ b/meta_id_codes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raulwicke\Documents\GitHub\SHRA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maristuser\Desktop\SHRA-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,17 +24,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
-  <si>
-    <t>AC25X3</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>KA67G7</t>
   </si>
   <si>
-    <t>YQ89Q0</t>
-  </si>
-  <si>
     <t>DN14D7</t>
   </si>
   <si>
@@ -44,9 +38,6 @@
     <t>EZ70E3</t>
   </si>
   <si>
-    <t>AA27O8</t>
-  </si>
-  <si>
     <t>NE89G7</t>
   </si>
   <si>
@@ -59,21 +50,6 @@
     <t>JL14Z1</t>
   </si>
   <si>
-    <t>BV49B4</t>
-  </si>
-  <si>
-    <t>QQ61J7</t>
-  </si>
-  <si>
-    <t>KT81P4</t>
-  </si>
-  <si>
-    <t>SS38K0</t>
-  </si>
-  <si>
-    <t>ZM55R6</t>
-  </si>
-  <si>
     <t>RB95L5</t>
   </si>
   <si>
@@ -164,9 +140,6 @@
     <t>WA73J6</t>
   </si>
   <si>
-    <t>KQ76M2</t>
-  </si>
-  <si>
     <t>XG77V2</t>
   </si>
   <si>
@@ -227,9 +200,6 @@
     <t>TR54B8</t>
   </si>
   <si>
-    <t>UI99Y0</t>
-  </si>
-  <si>
     <t>PJ64J1</t>
   </si>
   <si>
@@ -243,9 +213,6 @@
   </si>
   <si>
     <t>CU14B0</t>
-  </si>
-  <si>
-    <t>AS71D8</t>
   </si>
   <si>
     <t>CF65M7</t>
@@ -514,23 +481,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -566,23 +516,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -735,401 +668,362 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:K14"/>
+  <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:C3"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="K2" t="s">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+      <c r="G4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H4" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" t="s">
+        <v>14</v>
+      </c>
+      <c r="G5" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>17</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F7" t="s">
         <v>67</v>
       </c>
+      <c r="G7" t="s">
+        <v>68</v>
+      </c>
+      <c r="H7" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" t="s">
+        <v>70</v>
+      </c>
+      <c r="J7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" t="s">
+        <v>72</v>
+      </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>0</v>
-      </c>
-      <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" t="s">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B8" t="s">
+        <v>40</v>
+      </c>
+      <c r="C8" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s">
         <v>73</v>
       </c>
+      <c r="G8" t="s">
+        <v>74</v>
+      </c>
+      <c r="H8" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" t="s">
+        <v>78</v>
+      </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" t="s">
-        <v>20</v>
-      </c>
-      <c r="K4" t="s">
-        <v>21</v>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" t="s">
+        <v>80</v>
+      </c>
+      <c r="H9" t="s">
+        <v>81</v>
+      </c>
+      <c r="I9" t="s">
+        <v>82</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+      <c r="K9" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E5" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" t="s">
-        <v>22</v>
-      </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" t="s">
-        <v>25</v>
-      </c>
-      <c r="J5" t="s">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" t="s">
+        <v>58</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>85</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" t="s">
+        <v>89</v>
+      </c>
+      <c r="K10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" t="s">
+        <v>63</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>91</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" t="s">
         <v>26</v>
       </c>
-      <c r="K5" t="s">
-        <v>27</v>
+      <c r="E12" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+      <c r="G12" t="s">
+        <v>98</v>
+      </c>
+      <c r="H12" t="s">
+        <v>99</v>
+      </c>
+      <c r="I12" t="s">
+        <v>100</v>
+      </c>
+      <c r="J12" t="s">
+        <v>101</v>
+      </c>
+      <c r="K12" t="s">
+        <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="K6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>52</v>
-      </c>
-      <c r="E7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" t="s">
-        <v>80</v>
-      </c>
-      <c r="I7" t="s">
-        <v>81</v>
-      </c>
-      <c r="J7" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G8" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" t="s">
-        <v>87</v>
-      </c>
-      <c r="J8" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" t="s">
-        <v>55</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="E13" t="s">
         <v>62</v>
       </c>
-      <c r="E9" t="s">
-        <v>51</v>
-      </c>
-      <c r="F9" t="s">
-        <v>90</v>
-      </c>
-      <c r="G9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H9" t="s">
-        <v>92</v>
-      </c>
-      <c r="I9" t="s">
-        <v>93</v>
-      </c>
-      <c r="J9" t="s">
-        <v>94</v>
-      </c>
-      <c r="K9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D10" t="s">
-        <v>68</v>
-      </c>
-      <c r="E10" t="s">
-        <v>56</v>
-      </c>
-      <c r="F10" t="s">
-        <v>96</v>
-      </c>
-      <c r="G10" t="s">
-        <v>97</v>
-      </c>
-      <c r="H10" t="s">
-        <v>98</v>
-      </c>
-      <c r="I10" t="s">
-        <v>99</v>
-      </c>
-      <c r="J10" t="s">
-        <v>100</v>
-      </c>
-      <c r="K10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D11" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F11" t="s">
-        <v>102</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="F13" t="s">
         <v>103</v>
       </c>
-      <c r="H11" t="s">
+      <c r="G13" t="s">
         <v>104</v>
       </c>
-      <c r="I11" t="s">
+      <c r="H13" t="s">
         <v>105</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I13" t="s">
         <v>106</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J13" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" t="s">
-        <v>70</v>
-      </c>
-      <c r="C12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" t="s">
-        <v>66</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="K13" t="s">
         <v>108</v>
-      </c>
-      <c r="G12" t="s">
-        <v>109</v>
-      </c>
-      <c r="H12" t="s">
-        <v>110</v>
-      </c>
-      <c r="I12" t="s">
-        <v>111</v>
-      </c>
-      <c r="J12" t="s">
-        <v>112</v>
-      </c>
-      <c r="K12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" t="s">
-        <v>72</v>
-      </c>
-      <c r="F13" t="s">
-        <v>114</v>
-      </c>
-      <c r="G13" t="s">
-        <v>115</v>
-      </c>
-      <c r="H13" t="s">
-        <v>116</v>
-      </c>
-      <c r="I13" t="s">
-        <v>117</v>
-      </c>
-      <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/meta_id_codes.xlsx
+++ b/meta_id_codes.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maristuser\Desktop\SHRA-master\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maristuser\Desktop\META\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,16 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
-  <si>
-    <t>KA67G7</t>
-  </si>
-  <si>
-    <t>DN14D7</t>
-  </si>
-  <si>
-    <t>KT48N2</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
   <si>
     <t>EZ70E3</t>
   </si>
@@ -50,21 +41,6 @@
     <t>JL14Z1</t>
   </si>
   <si>
-    <t>RB95L5</t>
-  </si>
-  <si>
-    <t>GW25U6</t>
-  </si>
-  <si>
-    <t>XH11A4</t>
-  </si>
-  <si>
-    <t>HX79R3</t>
-  </si>
-  <si>
-    <t>JC51P7</t>
-  </si>
-  <si>
     <t>JZ97G4</t>
   </si>
   <si>
@@ -105,9 +81,6 @@
   </si>
   <si>
     <t>OM74G9</t>
-  </si>
-  <si>
-    <t>SM22Z6</t>
   </si>
   <si>
     <t>KX78V8</t>
@@ -671,7 +644,7 @@
   <dimension ref="A4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E4" sqref="E4:J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,350 +653,323 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" t="s">
-        <v>0</v>
-      </c>
-      <c r="F4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>12</v>
-      </c>
       <c r="K4" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" t="s">
-        <v>14</v>
-      </c>
       <c r="G5" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="J5" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D6" t="s">
-        <v>38</v>
-      </c>
       <c r="E6" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="I6" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="J6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="K6" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>25</v>
+      </c>
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
         <v>34</v>
       </c>
-      <c r="B7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
-      </c>
       <c r="E7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="K7" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" t="s">
         <v>39</v>
       </c>
-      <c r="B8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" t="s">
-        <v>48</v>
-      </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>28</v>
       </c>
       <c r="F8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="G8" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="H8" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="I8" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="J8" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="K8" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
         <v>44</v>
       </c>
-      <c r="B9" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" t="s">
-        <v>53</v>
-      </c>
       <c r="E9" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="G9" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="H9" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="K9" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" t="s">
         <v>49</v>
       </c>
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="s">
-        <v>58</v>
-      </c>
       <c r="E10" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J10" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="K10" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="B11" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s">
-        <v>63</v>
-      </c>
       <c r="E11" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="H11" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="I11" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J11" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="K11" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="F12" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="I12" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="J12" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="K12" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E13" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F13" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="H13" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="I13" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="J13" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="K13" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/meta_id_codes.xlsx
+++ b/meta_id_codes.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17426"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maristuser\Desktop\META\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raulwicke\Documents\GitHub\SHRA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="8052"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>EZ70E3</t>
   </si>
@@ -39,9 +39,6 @@
   </si>
   <si>
     <t>JL14Z1</t>
-  </si>
-  <si>
-    <t>JZ97G4</t>
   </si>
   <si>
     <t>UZ38B4</t>
@@ -454,6 +451,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -489,6 +503,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -641,23 +672,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:K13"/>
+  <dimension ref="A5:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:J4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="K4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -668,308 +694,308 @@
         <v>3</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
       <c r="F5" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
-        <v>11</v>
-      </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
       <c r="D6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" t="s">
         <v>12</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>13</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>15</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>16</v>
       </c>
-      <c r="K6" t="s">
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H7" t="s">
+        <v>59</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" t="s">
+        <v>70</v>
+      </c>
+      <c r="H9" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" t="s">
+        <v>72</v>
+      </c>
+      <c r="J9" t="s">
+        <v>73</v>
+      </c>
+      <c r="K9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>79</v>
+      </c>
+      <c r="K10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" t="s">
+        <v>81</v>
+      </c>
+      <c r="G11" t="s">
+        <v>82</v>
+      </c>
+      <c r="H11" t="s">
+        <v>83</v>
+      </c>
+      <c r="I11" t="s">
+        <v>84</v>
+      </c>
+      <c r="J11" t="s">
+        <v>85</v>
+      </c>
+      <c r="K11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>49</v>
+      </c>
+      <c r="B12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" t="s">
         <v>17</v>
       </c>
+      <c r="E12" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" t="s">
+        <v>89</v>
+      </c>
+      <c r="I12" t="s">
+        <v>90</v>
+      </c>
+      <c r="J12" t="s">
+        <v>91</v>
+      </c>
+      <c r="K12" t="s">
+        <v>92</v>
+      </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C7" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D13" t="s">
         <v>22</v>
       </c>
-      <c r="F7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H7" t="s">
-        <v>60</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>62</v>
-      </c>
-      <c r="K7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" t="s">
-        <v>39</v>
-      </c>
-      <c r="E8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" t="s">
-        <v>64</v>
-      </c>
-      <c r="G8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>66</v>
-      </c>
-      <c r="I8" t="s">
-        <v>67</v>
-      </c>
-      <c r="J8" t="s">
-        <v>68</v>
-      </c>
-      <c r="K8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B9" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H9" t="s">
-        <v>72</v>
-      </c>
-      <c r="I9" t="s">
-        <v>73</v>
-      </c>
-      <c r="J9" t="s">
-        <v>74</v>
-      </c>
-      <c r="K9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" t="s">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" t="s">
-        <v>49</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" t="s">
-        <v>79</v>
-      </c>
-      <c r="J10" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>45</v>
-      </c>
-      <c r="B11" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" t="s">
-        <v>82</v>
-      </c>
-      <c r="G11" t="s">
-        <v>83</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>85</v>
-      </c>
-      <c r="J11" t="s">
-        <v>86</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="E13" t="s">
         <v>52</v>
       </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" t="s">
-        <v>88</v>
-      </c>
-      <c r="G12" t="s">
-        <v>89</v>
-      </c>
-      <c r="H12" t="s">
-        <v>90</v>
-      </c>
-      <c r="I12" t="s">
-        <v>91</v>
-      </c>
-      <c r="J12" t="s">
-        <v>92</v>
-      </c>
-      <c r="K12" t="s">
+      <c r="F13" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>55</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>94</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>95</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>96</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>97</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>98</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
       </c>
     </row>
   </sheetData>
